--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-672008.4417090771</v>
+        <v>-622858.8264354115</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17369085.08859304</v>
+        <v>16752473.70102567</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9472529.183671674</v>
+        <v>9482447.760828784</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>275.8561858880571</v>
       </c>
       <c r="X2" t="n">
-        <v>259.4170031801459</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>85.78580588144442</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>52.49195549286388</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>158.0094978112975</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>384.2161257888899</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>72.1342498573598</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.2058397557558</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.8887925305513</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,10 +1139,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>175.7311957786737</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,10 +1300,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>162.9070982917628</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,10 +1345,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>41.88609555925822</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>142.8165634576207</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>283.0390136522044</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1430,10 +1430,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>77.14020824927424</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1576,13 +1576,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>27.07950026194707</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>229.9363968614109</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>289.0617922438117</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>105.5504749248106</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946038</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1856,10 +1856,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>285.6387452637036</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112154</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.65722052658845</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>35.34780583513598</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.345659457196</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>318.1045110731541</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.65722052658779</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2245,16 +2245,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513508</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>174.0510465307891</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>41.00451938202599</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>103.8284742946036</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9742767430577</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2998,7 +2998,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,13 +3010,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>53.06991172717059</v>
+        <v>265.0282463195793</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225774</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>219.287534548411</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>260.4356504767626</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925547</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934213</v>
+        <v>4.967932742934439</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W2" t="n">
-        <v>846.059151609114</v>
+        <v>1828.476810797182</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.2559470001092</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C4" t="n">
-        <v>209.2559470001092</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D4" t="n">
-        <v>209.2559470001092</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E4" t="n">
-        <v>209.2559470001092</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
-        <v>209.2559470001092</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>209.2559470001092</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1235.38760622724</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.2559470001092</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1235.933578019395</v>
+        <v>1671.959615828829</v>
       </c>
       <c r="C5" t="n">
-        <v>807.3519037566634</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D5" t="n">
-        <v>775.482522971512</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9008487087803</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1278.355574052689</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>1277.540523504127</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X5" t="n">
-        <v>1262.438464123841</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y5" t="n">
-        <v>1258.192744463899</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.4401176967148</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.062614956869</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.062614956869</v>
+        <v>1605.270802492989</v>
       </c>
       <c r="X7" t="n">
-        <v>1292.062614956869</v>
+        <v>1359.879047826402</v>
       </c>
       <c r="Y7" t="n">
-        <v>1132.258736415702</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2183.156401456732</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C8" t="n">
-        <v>1745.013928640155</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.104143814599</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>875.3293989728944</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>447.4619693821022</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>46.06413800536603</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>46.06413800536603</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>46.06413800536603</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>481.3188254582839</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1017.510341740245</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1017.510341740245</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1017.510341740245</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1017.510341740245</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1017.510341740245</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1587.554049556649</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2134.052835515244</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2303.206900268301</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.206900268301</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.206900268301</v>
+        <v>2492.554568069131</v>
       </c>
       <c r="U8" t="n">
-        <v>2303.206900268301</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.206900268301</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.391849719738</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>2287.289790339453</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.044070679511</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>552.2358829966588</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.7794218333011</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.6891329798544</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.5687183068081</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>173.1848799229697</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.79979018915355</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>46.06413800536603</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>72.12781116582362</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>396.6861361320359</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>966.7298439484405</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1592.131121389835</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.303899484175</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.848461932558</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.66981826316</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.333271263128</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1140.215753325127</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.8929990583213</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>800.0255632972012</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.5397840764219</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1125.122298617247</v>
+        <v>954.7136726652279</v>
       </c>
       <c r="C10" t="n">
-        <v>952.5605871004724</v>
+        <v>782.1519611484529</v>
       </c>
       <c r="D10" t="n">
-        <v>786.6825943019951</v>
+        <v>616.2739683499756</v>
       </c>
       <c r="E10" t="n">
-        <v>616.9245905527323</v>
+        <v>446.5159646007128</v>
       </c>
       <c r="F10" t="n">
-        <v>440.2175365144885</v>
+        <v>446.5159646007128</v>
       </c>
       <c r="G10" t="n">
-        <v>274.6262615403161</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>134.7240872306907</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>46.06413800536603</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>46.06413800536603</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>216.0782049656591</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>634.2880867336202</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1093.771953914533</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1536.030757072178</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1955.700006297959</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2303.206900268301</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2303.206900268301</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2281.789078973673</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2122.54771027167</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1876.668263850125</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1876.668263850125</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1834.359076416531</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1562.332672002822</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1316.940917336235</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1316.940917336235</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2375.479348395544</v>
+        <v>1813.445384094265</v>
       </c>
       <c r="C11" t="n">
-        <v>1937.336875578967</v>
+        <v>1375.302911277688</v>
       </c>
       <c r="D11" t="n">
-        <v>1501.427090753411</v>
+        <v>1231.043756269991</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.652345911707</v>
+        <v>797.2690114282858</v>
       </c>
       <c r="F11" t="n">
-        <v>781.7543523236208</v>
+        <v>369.4015818374936</v>
       </c>
       <c r="G11" t="n">
-        <v>380.3565209468847</v>
+        <v>369.4015818374936</v>
       </c>
       <c r="H11" t="n">
-        <v>91.22636639010092</v>
+        <v>80.27142728070979</v>
       </c>
       <c r="I11" t="n">
-        <v>90.80957701724093</v>
+        <v>79.85463790784979</v>
       </c>
       <c r="J11" t="n">
-        <v>526.0642644701587</v>
+        <v>79.85463790784979</v>
       </c>
       <c r="K11" t="n">
-        <v>1360.414556428337</v>
+        <v>914.2049298660278</v>
       </c>
       <c r="L11" t="n">
-        <v>2435.474522681196</v>
+        <v>1902.406073975669</v>
       </c>
       <c r="M11" t="n">
-        <v>2435.474522681196</v>
+        <v>1902.406073975669</v>
       </c>
       <c r="N11" t="n">
-        <v>2435.474522681196</v>
+        <v>1902.406073975669</v>
       </c>
       <c r="O11" t="n">
-        <v>3415.654189251502</v>
+        <v>2882.585740545975</v>
       </c>
       <c r="P11" t="n">
-        <v>4243.964064084898</v>
+        <v>3710.895615379371</v>
       </c>
       <c r="Q11" t="n">
-        <v>4371.324786108989</v>
+        <v>3992.73189539249</v>
       </c>
       <c r="R11" t="n">
-        <v>4540.478850862046</v>
+        <v>3992.73189539249</v>
       </c>
       <c r="S11" t="n">
-        <v>4456.826977045883</v>
+        <v>3909.080021576327</v>
       </c>
       <c r="T11" t="n">
-        <v>4236.759749918921</v>
+        <v>3689.012794449365</v>
       </c>
       <c r="U11" t="n">
-        <v>3977.537447235938</v>
+        <v>3429.790491766382</v>
       </c>
       <c r="V11" t="n">
-        <v>3614.920497169765</v>
+        <v>3067.173541700208</v>
       </c>
       <c r="W11" t="n">
-        <v>3210.065042580798</v>
+        <v>3067.173541700208</v>
       </c>
       <c r="X11" t="n">
-        <v>3210.065042580798</v>
+        <v>2648.031078279519</v>
       </c>
       <c r="Y11" t="n">
-        <v>2801.778918880451</v>
+        <v>2239.744954579172</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.9813220085338</v>
+        <v>586.0263828991426</v>
       </c>
       <c r="C12" t="n">
-        <v>490.524860845176</v>
+        <v>479.5699217357849</v>
       </c>
       <c r="D12" t="n">
-        <v>395.4345719917293</v>
+        <v>384.4796328823381</v>
       </c>
       <c r="E12" t="n">
-        <v>301.314157318683</v>
+        <v>290.3592182092918</v>
       </c>
       <c r="F12" t="n">
-        <v>217.9303189348446</v>
+        <v>206.9753798254534</v>
       </c>
       <c r="G12" t="n">
-        <v>132.5452292010285</v>
+        <v>121.5902900916373</v>
       </c>
       <c r="H12" t="n">
-        <v>90.80957701724093</v>
+        <v>79.85463790784979</v>
       </c>
       <c r="I12" t="n">
-        <v>116.8732501776985</v>
+        <v>105.9183110683074</v>
       </c>
       <c r="J12" t="n">
-        <v>441.4315751439108</v>
+        <v>430.4766360345197</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.137621769635</v>
+        <v>1085.182682660243</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.137621769635</v>
+        <v>1085.182682660243</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.137621769635</v>
+        <v>1085.182682660243</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.137621769635</v>
+        <v>1085.182682660243</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.137621769635</v>
+        <v>1085.182682660243</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.137621769635</v>
+        <v>1085.182682660243</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.87656040171</v>
+        <v>1625.921621292319</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.04933849605</v>
+        <v>1743.094399386659</v>
       </c>
       <c r="S12" t="n">
-        <v>1690.593900944433</v>
+        <v>1679.638961835042</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.415257275034</v>
+        <v>1549.460318165643</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.078710275003</v>
+        <v>1373.123771165612</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.961192337002</v>
+        <v>1174.006253227611</v>
       </c>
       <c r="W12" t="n">
-        <v>999.6384380701961</v>
+        <v>988.6834989608051</v>
       </c>
       <c r="X12" t="n">
-        <v>844.7710023090762</v>
+        <v>833.816063199685</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.2852230882969</v>
+        <v>707.3302839789058</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>938.1269618422283</v>
+        <v>1019.010624210105</v>
       </c>
       <c r="C13" t="n">
-        <v>765.5652503254532</v>
+        <v>846.4489126933304</v>
       </c>
       <c r="D13" t="n">
-        <v>599.6872575269759</v>
+        <v>680.5709198948532</v>
       </c>
       <c r="E13" t="n">
-        <v>599.6872575269759</v>
+        <v>510.8129161455904</v>
       </c>
       <c r="F13" t="n">
-        <v>422.9802034887321</v>
+        <v>334.1058621073468</v>
       </c>
       <c r="G13" t="n">
-        <v>257.3889285145598</v>
+        <v>168.5145871331745</v>
       </c>
       <c r="H13" t="n">
-        <v>179.4695262425656</v>
+        <v>168.5145871331745</v>
       </c>
       <c r="I13" t="n">
-        <v>90.80957701724093</v>
+        <v>79.85463790784979</v>
       </c>
       <c r="J13" t="n">
-        <v>177.3892621819308</v>
+        <v>166.4343230725397</v>
       </c>
       <c r="K13" t="n">
-        <v>452.1477167530663</v>
+        <v>441.1927776436752</v>
       </c>
       <c r="L13" t="n">
-        <v>870.3575985210274</v>
+        <v>859.4026594116363</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.84146570194</v>
+        <v>1318.886526592549</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.100268859585</v>
+        <v>1761.145329750194</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.769518085366</v>
+        <v>2180.814578975976</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.276412055708</v>
+        <v>2528.321472946317</v>
       </c>
       <c r="Q13" t="n">
-        <v>2707.469186920041</v>
+        <v>2696.51424781065</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.051365625412</v>
+        <v>2675.096426516021</v>
       </c>
       <c r="S13" t="n">
-        <v>2686.051365625412</v>
+        <v>2515.855057814018</v>
       </c>
       <c r="T13" t="n">
-        <v>2440.171919203867</v>
+        <v>2269.975611392473</v>
       </c>
       <c r="U13" t="n">
-        <v>2161.738918456972</v>
+        <v>2242.62258082485</v>
       </c>
       <c r="V13" t="n">
-        <v>1874.783410327403</v>
+        <v>1955.66707269528</v>
       </c>
       <c r="W13" t="n">
-        <v>1602.757005913695</v>
+        <v>1683.640668281572</v>
       </c>
       <c r="X13" t="n">
-        <v>1357.365251247107</v>
+        <v>1438.248913614984</v>
       </c>
       <c r="Y13" t="n">
-        <v>1129.945580561215</v>
+        <v>1210.829242929093</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2521.726131620352</v>
+        <v>2526.596499768893</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.583658803775</v>
+        <v>2088.454026952316</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.67387397822</v>
+        <v>1652.544242126761</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.899129136515</v>
+        <v>1218.769497285056</v>
       </c>
       <c r="F14" t="n">
-        <v>786.0316995457225</v>
+        <v>790.9020676942638</v>
       </c>
       <c r="G14" t="n">
-        <v>384.6338681689864</v>
+        <v>389.5042363175278</v>
       </c>
       <c r="H14" t="n">
-        <v>95.50371361220269</v>
+        <v>100.374081760744</v>
       </c>
       <c r="I14" t="n">
-        <v>95.50371361220269</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="J14" t="n">
-        <v>95.50371361220269</v>
+        <v>535.2119798408019</v>
       </c>
       <c r="K14" t="n">
-        <v>437.1672291399703</v>
+        <v>1369.56227179898</v>
       </c>
       <c r="L14" t="n">
-        <v>1512.22719539283</v>
+        <v>2444.622238051839</v>
       </c>
       <c r="M14" t="n">
-        <v>2669.27503060338</v>
+        <v>2642.876292031903</v>
       </c>
       <c r="N14" t="n">
-        <v>3795.006014039827</v>
+        <v>2642.876292031903</v>
       </c>
       <c r="O14" t="n">
-        <v>4775.185680610134</v>
+        <v>3623.05595860221</v>
       </c>
       <c r="P14" t="n">
-        <v>4775.185680610134</v>
+        <v>4451.365833435606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4775.185680610134</v>
+        <v>4997.8646193942</v>
       </c>
       <c r="R14" t="n">
-        <v>4775.185680610134</v>
+        <v>4997.8646193942</v>
       </c>
       <c r="S14" t="n">
-        <v>4775.185680610134</v>
+        <v>4914.212745578037</v>
       </c>
       <c r="T14" t="n">
-        <v>4775.185680610134</v>
+        <v>4694.145518451076</v>
       </c>
       <c r="U14" t="n">
-        <v>4542.926693881436</v>
+        <v>4434.923215768093</v>
       </c>
       <c r="V14" t="n">
-        <v>4180.309743815263</v>
+        <v>4072.306265701919</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.454289226296</v>
+        <v>3780.324657374837</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.311825805607</v>
+        <v>3361.182193954147</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.02570210526</v>
+        <v>2952.896070253801</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.6754586034955</v>
+        <v>606.1290373791768</v>
       </c>
       <c r="C15" t="n">
-        <v>495.2189974401377</v>
+        <v>499.6725762158191</v>
       </c>
       <c r="D15" t="n">
-        <v>400.128708586691</v>
+        <v>404.5822873623724</v>
       </c>
       <c r="E15" t="n">
-        <v>306.0082939136447</v>
+        <v>310.4618726893261</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6244555298063</v>
+        <v>227.0780343054877</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2393657959902</v>
+        <v>141.6929445716715</v>
       </c>
       <c r="H15" t="n">
-        <v>95.50371361220269</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="I15" t="n">
-        <v>121.5673867726603</v>
+        <v>126.0209655483416</v>
       </c>
       <c r="J15" t="n">
-        <v>446.1257117388726</v>
+        <v>450.5792905145539</v>
       </c>
       <c r="K15" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="L15" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="M15" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="O15" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="Q15" t="n">
-        <v>1641.570696996672</v>
+        <v>1646.024275772353</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.743475091012</v>
+        <v>1763.197053866693</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.288037539395</v>
+        <v>1699.741616315076</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.109393869996</v>
+        <v>1569.562972645678</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.772846869964</v>
+        <v>1393.226425645646</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.655328931964</v>
+        <v>1194.108907707645</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.332574665158</v>
+        <v>1008.786153440839</v>
       </c>
       <c r="X15" t="n">
-        <v>849.4651389040379</v>
+        <v>853.9187176797192</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.9793596832586</v>
+        <v>727.4329384589399</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.999750689134</v>
+        <v>979.8519272298552</v>
       </c>
       <c r="C16" t="n">
-        <v>773.4380391723589</v>
+        <v>807.29021571308</v>
       </c>
       <c r="D16" t="n">
-        <v>607.5600463738816</v>
+        <v>807.29021571308</v>
       </c>
       <c r="E16" t="n">
-        <v>437.8020426246188</v>
+        <v>637.5322119638173</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0949885863751</v>
+        <v>460.8251579255735</v>
       </c>
       <c r="G16" t="n">
-        <v>95.50371361220269</v>
+        <v>295.2338829514012</v>
       </c>
       <c r="H16" t="n">
-        <v>95.50371361220354</v>
+        <v>188.6172416132087</v>
       </c>
       <c r="I16" t="n">
-        <v>95.50371361220354</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0833987768934</v>
+        <v>186.5369775525739</v>
       </c>
       <c r="K16" t="n">
-        <v>456.841853348029</v>
+        <v>461.2954321237094</v>
       </c>
       <c r="L16" t="n">
-        <v>875.05173511599</v>
+        <v>879.5053138916704</v>
       </c>
       <c r="M16" t="n">
-        <v>1334.535602296903</v>
+        <v>1338.989181072584</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.794405454548</v>
+        <v>1781.247984230228</v>
       </c>
       <c r="O16" t="n">
-        <v>2196.463654680329</v>
+        <v>2200.91723345601</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.970548650671</v>
+        <v>2548.424127426352</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.163323515003</v>
+        <v>2716.616902290684</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.163323515003</v>
+        <v>2695.199080996055</v>
       </c>
       <c r="S16" t="n">
-        <v>2552.921954813</v>
+        <v>2535.957712294052</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.044708050773</v>
+        <v>2290.078265872507</v>
       </c>
       <c r="U16" t="n">
-        <v>2169.611707303879</v>
+        <v>2011.645265125612</v>
       </c>
       <c r="V16" t="n">
-        <v>1882.656199174309</v>
+        <v>1724.689756996043</v>
       </c>
       <c r="W16" t="n">
-        <v>1610.6297947606</v>
+        <v>1452.663352582334</v>
       </c>
       <c r="X16" t="n">
-        <v>1365.238040094013</v>
+        <v>1207.271597915747</v>
       </c>
       <c r="Y16" t="n">
-        <v>1137.818369408121</v>
+        <v>979.8519272298552</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.142920993211</v>
+        <v>2413.722653507009</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.000448176635</v>
+        <v>1975.580180690432</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.090663351079</v>
+        <v>1539.670395864877</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.315918509374</v>
+        <v>1105.895651023172</v>
       </c>
       <c r="F17" t="n">
-        <v>786.4484889185821</v>
+        <v>678.02822143238</v>
       </c>
       <c r="G17" t="n">
-        <v>385.050657541846</v>
+        <v>389.5042363175278</v>
       </c>
       <c r="H17" t="n">
-        <v>95.92050298506268</v>
+        <v>100.374081760744</v>
       </c>
       <c r="I17" t="n">
-        <v>95.50371361220269</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="J17" t="n">
-        <v>341.633030283743</v>
+        <v>535.2119798408019</v>
       </c>
       <c r="K17" t="n">
-        <v>1175.983322241921</v>
+        <v>1369.56227179898</v>
       </c>
       <c r="L17" t="n">
-        <v>2251.04328849478</v>
+        <v>2444.622238051839</v>
       </c>
       <c r="M17" t="n">
-        <v>2251.04328849478</v>
+        <v>2444.622238051839</v>
       </c>
       <c r="N17" t="n">
-        <v>2251.04328849478</v>
+        <v>2473.722227278847</v>
       </c>
       <c r="O17" t="n">
-        <v>3231.222955065087</v>
+        <v>3453.901893849153</v>
       </c>
       <c r="P17" t="n">
-        <v>4059.532829898483</v>
+        <v>4282.21176868255</v>
       </c>
       <c r="Q17" t="n">
-        <v>4606.031615857078</v>
+        <v>4828.710554641144</v>
       </c>
       <c r="R17" t="n">
-        <v>4775.185680610134</v>
+        <v>4997.8646193942</v>
       </c>
       <c r="S17" t="n">
-        <v>4763.410710381257</v>
+        <v>4914.212745578037</v>
       </c>
       <c r="T17" t="n">
-        <v>4543.343483254295</v>
+        <v>4694.145518451076</v>
       </c>
       <c r="U17" t="n">
-        <v>4543.343483254295</v>
+        <v>4434.923215768093</v>
       </c>
       <c r="V17" t="n">
-        <v>4180.726533188122</v>
+        <v>4072.306265701919</v>
       </c>
       <c r="W17" t="n">
-        <v>3775.871078599155</v>
+        <v>3667.450811112953</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.728615178466</v>
+        <v>3248.308347692263</v>
       </c>
       <c r="Y17" t="n">
-        <v>2948.442491478119</v>
+        <v>2840.022223991917</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.6754586034955</v>
+        <v>606.1290373791768</v>
       </c>
       <c r="C18" t="n">
-        <v>495.2189974401377</v>
+        <v>499.6725762158191</v>
       </c>
       <c r="D18" t="n">
-        <v>400.128708586691</v>
+        <v>404.5822873623724</v>
       </c>
       <c r="E18" t="n">
-        <v>306.0082939136447</v>
+        <v>310.4618726893261</v>
       </c>
       <c r="F18" t="n">
-        <v>222.6244555298063</v>
+        <v>227.0780343054877</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2393657959902</v>
+        <v>141.6929445716715</v>
       </c>
       <c r="H18" t="n">
-        <v>95.50371361220269</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="I18" t="n">
-        <v>121.5673867726603</v>
+        <v>126.0209655483416</v>
       </c>
       <c r="J18" t="n">
-        <v>446.1257117388726</v>
+        <v>450.5792905145539</v>
       </c>
       <c r="K18" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="L18" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="M18" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="O18" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.570696996672</v>
+        <v>1646.024275772353</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.743475091012</v>
+        <v>1763.197053866693</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.288037539395</v>
+        <v>1699.741616315076</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.109393869996</v>
+        <v>1569.562972645678</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.772846869964</v>
+        <v>1393.226425645646</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.655328931964</v>
+        <v>1194.108907707645</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.332574665158</v>
+        <v>1008.786153440839</v>
       </c>
       <c r="X18" t="n">
-        <v>849.4651389040379</v>
+        <v>853.9187176797192</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.9793596832586</v>
+        <v>727.4329384589399</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.9975510298154</v>
+        <v>1054.842884472084</v>
       </c>
       <c r="C19" t="n">
-        <v>632.4358395130404</v>
+        <v>882.281172955309</v>
       </c>
       <c r="D19" t="n">
-        <v>466.557846714563</v>
+        <v>716.4031801568317</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7998429653003</v>
+        <v>546.6451764075689</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0949885863751</v>
+        <v>369.9381223693251</v>
       </c>
       <c r="G19" t="n">
-        <v>95.50371361220269</v>
+        <v>204.3468473951527</v>
       </c>
       <c r="H19" t="n">
-        <v>95.50371361220354</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="I19" t="n">
-        <v>95.50371361220354</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="J19" t="n">
-        <v>182.0833987768934</v>
+        <v>186.5369775525739</v>
       </c>
       <c r="K19" t="n">
-        <v>456.841853348029</v>
+        <v>461.2954321237094</v>
       </c>
       <c r="L19" t="n">
-        <v>875.05173511599</v>
+        <v>879.5053138916704</v>
       </c>
       <c r="M19" t="n">
-        <v>1334.535602296903</v>
+        <v>1338.989181072584</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.794405454548</v>
+        <v>1781.247984230228</v>
       </c>
       <c r="O19" t="n">
-        <v>2196.463654680329</v>
+        <v>2200.91723345601</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.970548650671</v>
+        <v>2548.424127426352</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.163323515003</v>
+        <v>2716.616902290684</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.163323515003</v>
+        <v>2716.616902290684</v>
       </c>
       <c r="S19" t="n">
-        <v>2552.921954813</v>
+        <v>2557.37553358868</v>
       </c>
       <c r="T19" t="n">
-        <v>2307.042508391455</v>
+        <v>2311.496087167136</v>
       </c>
       <c r="U19" t="n">
-        <v>2028.60950764456</v>
+        <v>2033.063086420241</v>
       </c>
       <c r="V19" t="n">
-        <v>1741.65399951499</v>
+        <v>1746.107578290671</v>
       </c>
       <c r="W19" t="n">
-        <v>1469.627595101282</v>
+        <v>1474.081173876963</v>
       </c>
       <c r="X19" t="n">
-        <v>1224.235840434694</v>
+        <v>1474.081173876963</v>
       </c>
       <c r="Y19" t="n">
-        <v>996.8161697488026</v>
+        <v>1246.661503191071</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.142920993212</v>
+        <v>2413.722653507009</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.000448176635</v>
+        <v>1975.580180690432</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.09066335108</v>
+        <v>1539.670395864877</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.315918509375</v>
+        <v>1218.352707912196</v>
       </c>
       <c r="F20" t="n">
-        <v>786.4484889185826</v>
+        <v>790.4852783214038</v>
       </c>
       <c r="G20" t="n">
-        <v>385.0506575418465</v>
+        <v>389.0874469446678</v>
       </c>
       <c r="H20" t="n">
-        <v>95.92050298506268</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="I20" t="n">
-        <v>95.50371361220269</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="J20" t="n">
-        <v>341.633030283743</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="K20" t="n">
-        <v>1175.983322241921</v>
+        <v>934.307584346062</v>
       </c>
       <c r="L20" t="n">
-        <v>2251.04328849478</v>
+        <v>2009.367550598921</v>
       </c>
       <c r="M20" t="n">
-        <v>2251.04328849478</v>
+        <v>3166.415385809472</v>
       </c>
       <c r="N20" t="n">
-        <v>2251.04328849478</v>
+        <v>4292.146369245918</v>
       </c>
       <c r="O20" t="n">
-        <v>3231.222955065087</v>
+        <v>4997.8646193942</v>
       </c>
       <c r="P20" t="n">
-        <v>4059.532829898483</v>
+        <v>4997.8646193942</v>
       </c>
       <c r="Q20" t="n">
-        <v>4606.031615857078</v>
+        <v>4997.8646193942</v>
       </c>
       <c r="R20" t="n">
-        <v>4775.185680610134</v>
+        <v>4997.8646193942</v>
       </c>
       <c r="S20" t="n">
-        <v>4763.410710381258</v>
+        <v>4914.212745578037</v>
       </c>
       <c r="T20" t="n">
-        <v>4543.343483254296</v>
+        <v>4694.145518451076</v>
       </c>
       <c r="U20" t="n">
-        <v>4543.343483254296</v>
+        <v>4434.923215768093</v>
       </c>
       <c r="V20" t="n">
-        <v>4180.726533188123</v>
+        <v>4072.306265701919</v>
       </c>
       <c r="W20" t="n">
-        <v>3775.871078599156</v>
+        <v>3667.450811112953</v>
       </c>
       <c r="X20" t="n">
-        <v>3356.728615178466</v>
+        <v>3248.308347692263</v>
       </c>
       <c r="Y20" t="n">
-        <v>2948.44249147812</v>
+        <v>2840.022223991917</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.6754586034955</v>
+        <v>606.1290373791768</v>
       </c>
       <c r="C21" t="n">
-        <v>495.2189974401377</v>
+        <v>499.6725762158191</v>
       </c>
       <c r="D21" t="n">
-        <v>400.128708586691</v>
+        <v>404.5822873623724</v>
       </c>
       <c r="E21" t="n">
-        <v>306.0082939136447</v>
+        <v>310.4618726893261</v>
       </c>
       <c r="F21" t="n">
-        <v>222.6244555298063</v>
+        <v>227.0780343054877</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2393657959902</v>
+        <v>141.6929445716715</v>
       </c>
       <c r="H21" t="n">
-        <v>95.50371361220269</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="I21" t="n">
-        <v>121.5673867726603</v>
+        <v>126.0209655483416</v>
       </c>
       <c r="J21" t="n">
-        <v>446.1257117388726</v>
+        <v>450.5792905145539</v>
       </c>
       <c r="K21" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="L21" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="M21" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="O21" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.831758364596</v>
+        <v>1105.285337140278</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.570696996672</v>
+        <v>1646.024275772353</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.743475091012</v>
+        <v>1763.197053866693</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.288037539395</v>
+        <v>1699.741616315076</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.109393869996</v>
+        <v>1569.562972645678</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.772846869964</v>
+        <v>1393.226425645646</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.655328931964</v>
+        <v>1194.108907707645</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.332574665158</v>
+        <v>1008.786153440839</v>
       </c>
       <c r="X21" t="n">
-        <v>849.4651389040379</v>
+        <v>853.9187176797192</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.9793596832586</v>
+        <v>727.4329384589399</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.1439212494967</v>
+        <v>809.4511298054956</v>
       </c>
       <c r="C22" t="n">
-        <v>743.5822097327216</v>
+        <v>636.8894182887208</v>
       </c>
       <c r="D22" t="n">
-        <v>577.7042169342443</v>
+        <v>471.0114254902435</v>
       </c>
       <c r="E22" t="n">
-        <v>577.7042169342443</v>
+        <v>301.2534217409807</v>
       </c>
       <c r="F22" t="n">
-        <v>400.9971628960005</v>
+        <v>265.5485673620564</v>
       </c>
       <c r="G22" t="n">
-        <v>235.4058879218282</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="H22" t="n">
-        <v>95.50371361220269</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="I22" t="n">
-        <v>95.50371361220269</v>
+        <v>99.95729238788401</v>
       </c>
       <c r="J22" t="n">
-        <v>182.0833987768926</v>
+        <v>186.5369775525739</v>
       </c>
       <c r="K22" t="n">
-        <v>456.8418533480281</v>
+        <v>461.2954321237094</v>
       </c>
       <c r="L22" t="n">
-        <v>875.0517351159892</v>
+        <v>879.5053138916704</v>
       </c>
       <c r="M22" t="n">
-        <v>1334.535602296902</v>
+        <v>1338.989181072584</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.794405454547</v>
+        <v>1781.247984230228</v>
       </c>
       <c r="O22" t="n">
-        <v>2196.463654680328</v>
+        <v>2200.91723345601</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.97054865067</v>
+        <v>2548.424127426352</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.163323515002</v>
+        <v>2716.616902290684</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.163323515003</v>
+        <v>2716.616902290684</v>
       </c>
       <c r="S22" t="n">
-        <v>2552.921954812999</v>
+        <v>2557.375533588679</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.042508391454</v>
+        <v>2311.496087167135</v>
       </c>
       <c r="U22" t="n">
-        <v>2028.609507644559</v>
+        <v>2033.06308642024</v>
       </c>
       <c r="V22" t="n">
-        <v>1852.800369734671</v>
+        <v>1746.107578290671</v>
       </c>
       <c r="W22" t="n">
-        <v>1580.773965320963</v>
+        <v>1474.081173876962</v>
       </c>
       <c r="X22" t="n">
-        <v>1335.382210654376</v>
+        <v>1228.689419210375</v>
       </c>
       <c r="Y22" t="n">
-        <v>1107.962539968484</v>
+        <v>1001.269748524483</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>1057.634124109937</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405614</v>
+        <v>885.0724125931617</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420841</v>
+        <v>719.1944197946843</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928213</v>
+        <v>549.4364160454215</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>372.7293620071778</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>207.1380870330054</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2594.704009018975</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2594.704009018975</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1994.290572595112</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376324</v>
+        <v>1249.452742828924</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
         <v>1008.757289365886</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1673.387333437352</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X31" t="n">
-        <v>1427.995578770765</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y31" t="n">
-        <v>1200.575908084873</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903953</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736204</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751431</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258803</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0912842876365</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134642</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109383</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886292</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.64750088558</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.167761876911</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826199</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825367</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>444.7825334645019</v>
       </c>
       <c r="K38" t="n">
-        <v>540.31673232073</v>
+        <v>1279.13282542268</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573589</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.42453378414</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220587</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790893</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790893</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387605</v>
@@ -7211,13 +7211,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7366,16 +7366,16 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7394,55 +7394,55 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K41" t="n">
-        <v>540.31673232073</v>
+        <v>540.3167323207282</v>
       </c>
       <c r="L41" t="n">
-        <v>1615.376698573589</v>
+        <v>1615.376698573588</v>
       </c>
       <c r="M41" t="n">
-        <v>2772.42453378414</v>
+        <v>2772.424533784138</v>
       </c>
       <c r="N41" t="n">
-        <v>3898.155517220587</v>
+        <v>3898.155517220585</v>
       </c>
       <c r="O41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="P41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716791</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7579,7 +7579,7 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7597,19 +7597,19 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206712</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390332</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961503</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.295274783587</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197261</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2524.219518297465</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2524.219518297465</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3504.399184867771</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4332.709059701167</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403416</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750118</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278744</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
         <v>293.3294123850158</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7825,13 +7825,13 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
@@ -7843,7 +7843,7 @@
         <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>541.607592204001</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>575.8017250670753</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670753</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>85.51751394880739</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7313807679728</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>998.1829738481223</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>128.6471939637286</v>
+        <v>284.6831111243623</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>345.1146621492603</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>200.2566201818827</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>248.6154713853943</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>29.3939285121287</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>248.6154713853943</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>712.8467173214967</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9644,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>-4.325112850592401e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K38" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>447.222251156477</v>
+        <v>447.2222511564752</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>551.1374990805298</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>288.7341235196792</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>140.5497416426799</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>61.36294431725501</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>248.5691704774787</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.412621479131395</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556917</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>26.69368279474239</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>111.7451077992653</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>32.95267764171867</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>111.7451077992651</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.15813455141291</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933323</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>111.3324863201336</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.15813455141287</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>110.0349065174847</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>201.9333177378957</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>34.67467827192556</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>216.2362286424008</v>
+        <v>4.277894049992085</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>56.36113619101474</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>23.65030257151125</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>829888.9560235754</v>
+        <v>834877.5568466423</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>829888.9560235754</v>
+        <v>834877.5568466423</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>832996.4484923247</v>
+        <v>834877.5568466423</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760647.539240965</v>
+        <v>693979.9558550647</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789214.2651482908</v>
+        <v>816317.0478683596</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789214.2651482909</v>
+        <v>816317.0478683596</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789214.2651482909</v>
+        <v>816317.0478683596</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>830335.5621688826</v>
+        <v>830335.5621688825</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>844502.4091922932</v>
+        <v>830335.5621688825</v>
       </c>
     </row>
     <row r="14">
@@ -26320,16 +26320,16 @@
         <v>120633.1469753419</v>
       </c>
       <c r="E2" t="n">
-        <v>108593.9374534179</v>
+        <v>99076.13189053754</v>
       </c>
       <c r="F2" t="n">
-        <v>112672.2695144467</v>
+        <v>116541.6015502194</v>
       </c>
       <c r="G2" t="n">
-        <v>112672.2695144468</v>
+        <v>116541.6015502194</v>
       </c>
       <c r="H2" t="n">
-        <v>112672.2695144467</v>
+        <v>116541.6015502194</v>
       </c>
       <c r="I2" t="n">
         <v>118542.9564309043</v>
@@ -26344,16 +26344,16 @@
         <v>118542.9564309043</v>
       </c>
       <c r="M2" t="n">
+        <v>118542.9564309043</v>
+      </c>
+      <c r="N2" t="n">
         <v>120633.1469753418</v>
       </c>
-      <c r="N2" t="n">
-        <v>120633.1469753419</v>
-      </c>
       <c r="O2" t="n">
-        <v>120633.1469753419</v>
+        <v>120633.1469753418</v>
       </c>
       <c r="P2" t="n">
-        <v>120633.1469753419</v>
+        <v>120633.1469753418</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47062.26763611558</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>167000.0461160948</v>
+        <v>98730.12060706399</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510018</v>
+        <v>71999.16471932855</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22460.77347719299</v>
+        <v>7657.021957093571</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38344.77152333042</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152372.8480649388</v>
+        <v>82403.73026734311</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>60163.09402146209</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>149865.9303752283</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25360.62206283271</v>
+        <v>23137.86934377528</v>
       </c>
       <c r="F4" t="n">
-        <v>26313.0604813296</v>
+        <v>27216.68981548958</v>
       </c>
       <c r="G4" t="n">
-        <v>26313.06048132963</v>
+        <v>27216.68981548958</v>
       </c>
       <c r="H4" t="n">
-        <v>26313.06048132963</v>
+        <v>27216.68981548958</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26448,10 +26448,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>33026.43656683595</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353606</v>
+        <v>42419.67665353611</v>
       </c>
       <c r="O4" t="n">
         <v>42419.67665353612</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>68636.34488407816</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69015.27853310309</v>
+        <v>60689.52480996584</v>
       </c>
       <c r="F5" t="n">
-        <v>72582.82234527403</v>
+        <v>75967.54221479184</v>
       </c>
       <c r="G5" t="n">
-        <v>72582.82234527403</v>
+        <v>75967.54221479184</v>
       </c>
       <c r="H5" t="n">
-        <v>72582.82234527403</v>
+        <v>75967.54221479184</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262415.3282820525</v>
+        <v>-308036.3764024805</v>
       </c>
       <c r="C6" t="n">
-        <v>-120224.0276223426</v>
+        <v>-84336.6778184357</v>
       </c>
       <c r="D6" t="n">
-        <v>-144931.3959200801</v>
+        <v>-84336.67781843565</v>
       </c>
       <c r="E6" t="n">
-        <v>-152782.0092586127</v>
+        <v>-83720.90526009873</v>
       </c>
       <c r="F6" t="n">
-        <v>-3036.01558725709</v>
+        <v>-58687.25681522524</v>
       </c>
       <c r="G6" t="n">
-        <v>13776.3866878431</v>
+        <v>13311.90790410331</v>
       </c>
       <c r="H6" t="n">
-        <v>13776.38668784306</v>
+        <v>13311.90790410331</v>
       </c>
       <c r="I6" t="n">
-        <v>-9320.134402283933</v>
+        <v>5460.392778432865</v>
       </c>
       <c r="J6" t="n">
-        <v>-97873.82627008112</v>
+        <v>-161533.9339821797</v>
       </c>
       <c r="K6" t="n">
-        <v>13140.63907490906</v>
+        <v>13117.41473552642</v>
       </c>
       <c r="L6" t="n">
-        <v>-25204.13244842134</v>
+        <v>13117.41473552642</v>
       </c>
       <c r="M6" t="n">
-        <v>-143849.2961946935</v>
+        <v>-69286.31553181668</v>
       </c>
       <c r="N6" t="n">
-        <v>2697.855595716101</v>
+        <v>-57465.23842574612</v>
       </c>
       <c r="O6" t="n">
-        <v>2697.855595716042</v>
+        <v>2697.855595715999</v>
       </c>
       <c r="P6" t="n">
-        <v>2697.855595716042</v>
+        <v>2697.855595716013</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>16.23571033874736</v>
-      </c>
-      <c r="N2" t="n">
-        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874737</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>575.8017250670753</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1135.119712715511</v>
+        <v>998.1829738481224</v>
       </c>
       <c r="F4" t="n">
-        <v>1193.796420152534</v>
+        <v>1249.46615484855</v>
       </c>
       <c r="G4" t="n">
-        <v>1193.796420152534</v>
+        <v>1249.46615484855</v>
       </c>
       <c r="H4" t="n">
-        <v>1193.796420152534</v>
+        <v>1249.46615484855</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>16.23571033874736</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5058675469709</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>559.3179876484362</v>
+        <v>330.6677672402654</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702206</v>
+        <v>251.2831810004277</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.46408323221181</v>
+        <v>28.79434853619523</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469709</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484362</v>
+        <v>330.6677672402654</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>192.6064735634054</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469709</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484362</v>
+        <v>330.6677672402654</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702206</v>
+        <v>251.2831810004277</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>124.9507141550199</v>
       </c>
       <c r="X2" t="n">
-        <v>155.5340356063365</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71734668508481</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>190.9286964644654</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>200.9812827542142</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>30.73491299759252</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>197.1718905122116</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.93963422327701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.1477822495074</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>42.13535907701808</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.028263932667812</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>242.1998574890156</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874589</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>541.607592204001</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>575.8017250670753</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670753</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>85.51751394880739</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7313807679728</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>998.1829738481223</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>128.6471939637286</v>
+        <v>284.6831111243623</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>345.1146621492603</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>200.2566201818827</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>248.6154713853943</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>29.3939285121287</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>248.6154713853943</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>712.8467173214967</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K38" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>447.222251156477</v>
+        <v>447.2222511564752</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37947,16 +37947,16 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>551.1374990805298</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38193,7 +38193,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
